--- a/Výsledky dotazníka.xlsx
+++ b/Výsledky dotazníka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\SOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0B55E-BE19-4897-B4B5-8530A95063AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A84A6E-5363-4B92-B7DF-00A1E77E9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13616CE5-8EB3-4211-83ED-F6F81F83F770}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Pripomienky</t>
   </si>
   <si>
-    <t>Zlesenie práce</t>
-  </si>
-  <si>
     <t>Hodnotenie práce</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Nemám čo dodať, výborné</t>
+  </si>
+  <si>
+    <t>Zlepšenie práce</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1045,10 @@
   <dimension ref="B1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +1072,12 @@
   <sheetData>
     <row r="1" spans="3:19" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -1086,7 +1086,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="28" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
@@ -1139,7 +1139,7 @@
     <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -1159,24 +1159,24 @@
         <v>7,69565217391304 /10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8">
         <v>4</v>
@@ -1185,42 +1185,42 @@
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="25">
         <v>7</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="25">
         <v>9</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="P4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="14">
         <v>3</v>
@@ -1229,42 +1229,42 @@
         <v>3</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="26">
         <v>9</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="26">
         <v>5</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="O5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14">
         <v>9</v>
@@ -1273,42 +1273,42 @@
         <v>10</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="26">
         <v>10</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="26">
         <v>10</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="O6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
@@ -1317,42 +1317,42 @@
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="26">
         <v>9</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="26">
         <v>9</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="N7" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="14">
         <v>9</v>
@@ -1361,43 +1361,43 @@
         <v>5</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="26">
         <v>4</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="26">
         <v>5</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="O8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
@@ -1406,42 +1406,42 @@
         <v>10</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="26">
         <v>9</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="26">
         <v>10</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="14">
         <v>4</v>
@@ -1450,42 +1450,42 @@
         <v>7</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="26">
         <v>9</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="26">
         <v>10</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -1494,40 +1494,40 @@
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="26">
         <v>8</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="26">
         <v>5</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -1536,42 +1536,42 @@
         <v>10</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="26">
         <v>9</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="26">
         <v>10</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="14">
         <v>3</v>
@@ -1580,42 +1580,42 @@
         <v>9</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="26">
         <v>9</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="26">
         <v>7</v>
       </c>
       <c r="K13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -1624,42 +1624,42 @@
         <v>8</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="26">
         <v>10</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="26">
         <v>7</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="P14" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -1668,42 +1668,42 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="26">
         <v>10</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="26">
         <v>10</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
@@ -1712,42 +1712,42 @@
         <v>5</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="26">
         <v>8</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="26">
         <v>4</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="14">
         <v>4</v>
@@ -1756,42 +1756,42 @@
         <v>7</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="26">
         <v>7</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="26">
         <v>5</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="14">
         <v>4</v>
@@ -1800,42 +1800,42 @@
         <v>8</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="26">
         <v>8</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="26">
         <v>8</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
@@ -1844,42 +1844,42 @@
         <v>7</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="26">
         <v>8</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="26">
         <v>7</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="14">
         <v>2</v>
@@ -1888,42 +1888,42 @@
         <v>5</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="26">
         <v>5</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="26">
         <v>5</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -1932,42 +1932,42 @@
         <v>4</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="26">
         <v>7</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="26">
         <v>4</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="P21" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
@@ -1976,43 +1976,43 @@
         <v>9</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="25">
         <v>10</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="25">
         <v>8</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
@@ -2021,43 +2021,43 @@
         <v>7</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="26">
         <v>9</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="26">
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="P23" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="14">
         <v>2</v>
@@ -2066,43 +2066,43 @@
         <v>8</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="26">
         <v>10</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="26">
         <v>10</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="14">
         <v>4</v>
@@ -2111,43 +2111,43 @@
         <v>6</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="26">
         <v>6</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="26">
         <v>10</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="21">
         <v>4</v>
@@ -2156,34 +2156,34 @@
         <v>10</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="27">
         <v>10</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="27">
         <v>10</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="18"/>
     </row>
